--- a/Analytics/SC0/TeamFirstCard_sc0.xlsx
+++ b/Analytics/SC0/TeamFirstCard_sc0.xlsx
@@ -7,13 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Hone_and15" r:id="rId3" sheetId="1"/>
-    <sheet name="Hfifteen_and30" r:id="rId4" sheetId="2"/>
+    <sheet name="Hfifteen_and38" r:id="rId4" sheetId="2"/>
     <sheet name="Hthirty_and45" r:id="rId5" sheetId="3"/>
     <sheet name="Hfortyfive_and60" r:id="rId6" sheetId="4"/>
     <sheet name="Hsixty_and75" r:id="rId7" sheetId="5"/>
     <sheet name="Hseventyfive_tomatchend" r:id="rId8" sheetId="6"/>
     <sheet name="Aone_and15" r:id="rId9" sheetId="7"/>
-    <sheet name="Afifteen_and30" r:id="rId10" sheetId="8"/>
+    <sheet name="Afifteen_and38" r:id="rId10" sheetId="8"/>
     <sheet name="Athirty_and45" r:id="rId11" sheetId="9"/>
     <sheet name="Afortyfive_and60" r:id="rId12" sheetId="10"/>
     <sheet name="Asixty_and75" r:id="rId13" sheetId="11"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="27">
   <si>
     <t>HomeTeam</t>
   </si>
@@ -94,16 +94,16 @@
     <t>Kilmarnock</t>
   </si>
   <si>
+    <t>St Mirren</t>
+  </si>
+  <si>
     <t>Celtic</t>
   </si>
   <si>
-    <t>St Mirren</t>
+    <t>AwayTeam</t>
   </si>
   <si>
     <t>12</t>
-  </si>
-  <si>
-    <t>AwayTeam</t>
   </si>
 </sst>
 </file>
@@ -278,7 +278,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -311,7 +311,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="n">
         <v>4.0</v>
@@ -355,7 +355,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="n">
         <v>2.0</v>
@@ -407,7 +407,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
         <v>18</v>
@@ -432,7 +432,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -520,7 +520,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="n">
         <v>1.0</v>
@@ -564,7 +564,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -575,7 +575,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="n">
         <v>7.0</v>
@@ -608,7 +608,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="n">
         <v>5.0</v>
@@ -721,7 +721,7 @@
         <v>22</v>
       </c>
       <c r="C2" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="3">
@@ -729,10 +729,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C3" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="4">
@@ -740,10 +740,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C4" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="5">
@@ -751,10 +751,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C5" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="6">
@@ -762,10 +762,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C6" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="7">
@@ -773,10 +773,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="8">
@@ -784,10 +784,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C8" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="9">
@@ -795,10 +795,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C9" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="10">
@@ -806,10 +806,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C10" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="11">
@@ -817,10 +817,10 @@
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C11" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="12">
@@ -831,7 +831,7 @@
         <v>19</v>
       </c>
       <c r="C12" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
   </sheetData>
@@ -861,10 +861,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="3">
@@ -872,10 +872,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C3" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="4">
@@ -883,10 +883,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="5">
@@ -894,10 +894,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C5" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="6">
@@ -905,10 +905,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="7">
@@ -919,7 +919,7 @@
         <v>24</v>
       </c>
       <c r="C7" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
@@ -927,10 +927,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C8" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="9">
@@ -941,7 +941,7 @@
         <v>14</v>
       </c>
       <c r="C9" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="10">
@@ -949,10 +949,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C10" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
@@ -960,10 +960,10 @@
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C11" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
@@ -971,21 +971,10 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C12" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
@@ -1081,7 +1070,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="n">
         <v>3.0</v>
@@ -1114,7 +1103,7 @@
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="n">
         <v>1.0</v>
@@ -1180,7 +1169,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="n">
         <v>3.0</v>
@@ -1235,7 +1224,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="n">
         <v>2.0</v>
@@ -1301,7 +1290,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="n">
         <v>5.0</v>
@@ -1422,7 +1411,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1499,7 +1488,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="n">
         <v>1.0</v>
@@ -1510,7 +1499,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="n">
         <v>1.0</v>
@@ -1554,7 +1543,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1565,10 +1554,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C2" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="3">
@@ -1576,10 +1565,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C3" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="4">
@@ -1587,10 +1576,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="5">
@@ -1598,10 +1587,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C5" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="6">
@@ -1609,10 +1598,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C6" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="7">
@@ -1620,10 +1609,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C7" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="8">
@@ -1631,10 +1620,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C8" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="9">
@@ -1645,7 +1634,7 @@
         <v>16</v>
       </c>
       <c r="C9" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="10">
@@ -1653,10 +1642,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C10" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="11">
@@ -1664,10 +1653,10 @@
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="12">
@@ -1675,21 +1664,21 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C12" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
       </c>
       <c r="C13" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
   </sheetData>
@@ -1708,7 +1697,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1730,10 +1719,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="4">
@@ -1741,10 +1730,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C4" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="5">
@@ -1752,10 +1741,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="6">
@@ -1763,10 +1752,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C6" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
@@ -1777,7 +1766,7 @@
         <v>14</v>
       </c>
       <c r="C7" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
@@ -1785,10 +1774,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C8" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
@@ -1799,7 +1788,7 @@
         <v>11</v>
       </c>
       <c r="C9" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
@@ -1807,10 +1796,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C10" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
@@ -1818,21 +1807,10 @@
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C11" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>

--- a/Analytics/SC0/TeamFirstCard_sc0.xlsx
+++ b/Analytics/SC0/TeamFirstCard_sc0.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="26">
   <si>
     <t>HomeTeam</t>
   </si>
@@ -55,55 +55,52 @@
     <t>8</t>
   </si>
   <si>
+    <t>Hibernian</t>
+  </si>
+  <si>
+    <t>St Mirren</t>
+  </si>
+  <si>
+    <t>Kilmarnock</t>
+  </si>
+  <si>
+    <t>Aberdeen</t>
+  </si>
+  <si>
+    <t>St Johnstone</t>
+  </si>
+  <si>
+    <t>Ross County</t>
+  </si>
+  <si>
+    <t>Hearts</t>
+  </si>
+  <si>
+    <t>Rangers</t>
+  </si>
+  <si>
     <t>9</t>
   </si>
   <si>
-    <t>Hibernian</t>
-  </si>
-  <si>
-    <t>St Johnstone</t>
+    <t>Dundee United</t>
+  </si>
+  <si>
+    <t>Celtic</t>
   </si>
   <si>
     <t>Dundee</t>
   </si>
   <si>
-    <t>Hearts</t>
-  </si>
-  <si>
     <t>Motherwell</t>
   </si>
   <si>
-    <t>Aberdeen</t>
-  </si>
-  <si>
-    <t>Livingston</t>
-  </si>
-  <si>
-    <t>Ross County</t>
-  </si>
-  <si>
-    <t>Rangers</t>
+    <t>AwayTeam</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
     <t>11</t>
-  </si>
-  <si>
-    <t>Kilmarnock</t>
-  </si>
-  <si>
-    <t>St Mirren</t>
-  </si>
-  <si>
-    <t>Celtic</t>
-  </si>
-  <si>
-    <t>AwayTeam</t>
-  </si>
-  <si>
-    <t>12</t>
   </si>
 </sst>
 </file>
@@ -168,10 +165,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="3">
@@ -179,10 +176,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -190,7 +187,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" t="n">
         <v>2.0</v>
@@ -201,10 +198,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
@@ -212,7 +209,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -223,7 +220,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" t="n">
         <v>1.0</v>
@@ -234,7 +231,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" t="n">
         <v>1.0</v>
@@ -245,20 +242,9 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -278,7 +264,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -292,7 +278,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="3">
@@ -300,10 +286,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C3" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -311,10 +297,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C4" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
@@ -322,10 +308,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
@@ -333,10 +319,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C6" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
@@ -344,10 +330,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C7" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
@@ -355,10 +341,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C8" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
@@ -366,53 +352,9 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C9" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -432,7 +374,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -443,10 +385,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C2" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="3">
@@ -454,10 +396,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C3" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -465,10 +407,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C4" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
@@ -476,10 +418,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
@@ -487,10 +429,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C6" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
@@ -498,10 +440,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C7" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
@@ -509,10 +451,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C8" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
@@ -520,31 +462,9 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C9" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -564,7 +484,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -575,10 +495,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C2" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
@@ -589,106 +509,7 @@
         <v>13</v>
       </c>
       <c r="C3" t="n">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="n">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
@@ -718,10 +539,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C2" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="3">
@@ -729,10 +550,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C3" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="4">
@@ -740,10 +561,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C4" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="5">
@@ -751,10 +572,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
@@ -762,10 +583,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
@@ -773,10 +594,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C7" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
@@ -784,10 +605,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C8" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
@@ -795,43 +616,21 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
@@ -861,10 +660,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C2" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
@@ -872,10 +671,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C3" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="4">
@@ -883,10 +682,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C4" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
@@ -894,86 +693,9 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C5" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1004,10 +726,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="3">
@@ -1015,10 +737,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C3" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -1026,10 +748,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
@@ -1037,10 +759,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C5" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
@@ -1048,10 +770,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C6" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
@@ -1059,10 +781,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
@@ -1070,42 +792,9 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C8" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1136,10 +825,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C2" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="3">
@@ -1147,10 +836,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C3" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -1158,10 +847,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C4" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
@@ -1169,10 +858,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C5" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
@@ -1180,10 +869,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C6" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
@@ -1191,64 +880,9 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1279,10 +913,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C2" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="3">
@@ -1290,10 +924,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="4">
@@ -1301,10 +935,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C4" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
@@ -1315,7 +949,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
@@ -1326,7 +960,7 @@
         <v>12</v>
       </c>
       <c r="C6" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
@@ -1334,10 +968,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C7" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
@@ -1345,10 +979,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C8" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
@@ -1356,43 +990,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
@@ -1411,7 +1012,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1422,10 +1023,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="3">
@@ -1433,10 +1034,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C3" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="4">
@@ -1444,86 +1045,9 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1543,7 +1067,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1554,10 +1078,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C2" t="n">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="3">
@@ -1565,10 +1089,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C3" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="4">
@@ -1576,10 +1100,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C4" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="5">
@@ -1587,10 +1111,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="6">
@@ -1598,10 +1122,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C6" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="7">
@@ -1609,10 +1133,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
@@ -1620,10 +1144,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C8" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
@@ -1631,54 +1155,43 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C9" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C10" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C11" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C12" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
@@ -1697,7 +1210,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1708,10 +1221,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C2" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="3">
@@ -1719,10 +1232,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -1730,10 +1243,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C4" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
@@ -1741,10 +1254,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C5" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
@@ -1752,10 +1265,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
@@ -1763,10 +1276,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C7" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
@@ -1774,42 +1287,9 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="n">
         <v>1.0</v>
       </c>
     </row>

--- a/Analytics/SC0/TeamFirstCard_sc0.xlsx
+++ b/Analytics/SC0/TeamFirstCard_sc0.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="26">
   <si>
     <t>HomeTeam</t>
   </si>
@@ -58,10 +58,10 @@
     <t>Hibernian</t>
   </si>
   <si>
+    <t>Kilmarnock</t>
+  </si>
+  <si>
     <t>St Mirren</t>
-  </si>
-  <si>
-    <t>Kilmarnock</t>
   </si>
   <si>
     <t>Aberdeen</t>
@@ -179,7 +179,7 @@
         <v>11</v>
       </c>
       <c r="C3" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="4">
@@ -275,7 +275,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" t="n">
         <v>3.0</v>
@@ -319,10 +319,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C6" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
@@ -330,7 +330,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C7" t="n">
         <v>1.0</v>
@@ -341,7 +341,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C8" t="n">
         <v>1.0</v>
@@ -352,7 +352,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" t="n">
         <v>1.0</v>
@@ -385,7 +385,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" t="n">
         <v>2.0</v>
@@ -495,7 +495,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -506,9 +506,20 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -539,10 +550,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C2" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="3">
@@ -550,7 +561,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" t="n">
         <v>3.0</v>
@@ -759,7 +770,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C5" t="n">
         <v>1.0</v>
@@ -770,7 +781,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -781,7 +792,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" t="n">
         <v>1.0</v>
@@ -792,9 +803,20 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C8" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -828,7 +850,7 @@
         <v>17</v>
       </c>
       <c r="C2" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="3">
@@ -847,7 +869,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -858,7 +880,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" t="n">
         <v>1.0</v>
@@ -869,7 +891,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -880,9 +902,20 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -924,7 +957,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
@@ -935,7 +968,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -946,7 +979,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C5" t="n">
         <v>1.0</v>
@@ -957,7 +990,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -968,7 +1001,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C7" t="n">
         <v>1.0</v>
@@ -979,7 +1012,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" t="n">
         <v>1.0</v>
@@ -990,9 +1023,20 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1051,6 +1095,17 @@
         <v>1.0</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1078,10 +1133,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="3">
@@ -1166,7 +1221,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" t="n">
         <v>1.0</v>
@@ -1232,7 +1287,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C3" t="n">
         <v>2.0</v>
@@ -1243,7 +1298,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C4" t="n">
         <v>2.0</v>
@@ -1265,7 +1320,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -1287,9 +1342,20 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C8" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="n">
         <v>1.0</v>
       </c>
     </row>
